--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_19-25.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_19-25.xlsx
@@ -110,6 +110,12 @@
     <t>CANDISTAN 1% TOPICAL CREAM 40 GM</t>
   </si>
   <si>
+    <t>CEFEPIME 1 GM I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
     <t>CERVITAM 20 CAPS.</t>
   </si>
   <si>
@@ -170,6 +176,12 @@
     <t>5:2</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
     <t>DEXATROL EYE/EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -407,10 +419,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>-1:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>شاش فازلين 10*10 سم</t>
@@ -1501,17 +1513,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1519,7 +1531,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1527,13 +1539,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
@@ -1545,7 +1557,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1553,17 +1565,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1585,11 +1597,11 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1611,11 +1623,11 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1637,11 +1649,11 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1663,11 +1675,11 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>0.10000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1689,11 +1701,11 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1709,13 +1721,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
@@ -1727,7 +1739,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1735,17 +1747,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1761,13 +1773,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>139.68000000000001</v>
+        <v>36</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
@@ -1779,7 +1791,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1787,17 +1799,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>24</v>
+        <v>139.68000000000001</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1813,17 +1825,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>1</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1831,7 +1843,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1839,17 +1851,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>26.670000000000002</v>
+        <v>0</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>0.33000000000000002</v>
+        <v>-0.20000000000000001</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1857,7 +1869,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1871,11 +1883,11 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1883,7 +1895,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1891,17 +1903,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>53</v>
+        <v>26.670000000000002</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1909,7 +1921,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1917,13 +1929,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
@@ -1935,7 +1947,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1949,11 +1961,11 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1961,7 +1973,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1969,17 +1981,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>1.6699999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1987,7 +1999,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1995,17 +2007,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>63.240000000000002</v>
+        <v>21</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2013,7 +2025,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2021,17 +2033,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>1</v>
+        <v>1.6699999999999999</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2039,7 +2051,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2047,17 +2059,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>50.439999999999998</v>
+        <v>63.240000000000002</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2065,7 +2077,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2079,11 +2091,11 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2091,7 +2103,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2105,11 +2117,11 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>0</v>
+        <v>50.439999999999998</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2117,7 +2129,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2125,17 +2137,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2143,7 +2155,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2151,17 +2163,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>55.670000000000002</v>
+        <v>0</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>0.17000000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2169,7 +2181,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2177,17 +2189,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2195,7 +2207,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2203,17 +2215,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>44</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2221,7 +2233,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2229,13 +2241,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
@@ -2247,7 +2259,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2255,17 +2267,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>40.479999999999997</v>
+        <v>44</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2273,7 +2285,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2281,13 +2293,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
@@ -2299,7 +2311,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2307,17 +2319,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>19</v>
+        <v>40.479999999999997</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>0.10000000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2325,7 +2337,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2333,13 +2345,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
@@ -2351,7 +2363,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2359,17 +2371,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>69.5</v>
+        <v>19</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2377,7 +2389,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2385,13 +2397,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
@@ -2403,7 +2415,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2411,13 +2423,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>82</v>
+        <v>69.5</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
@@ -2429,7 +2441,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2437,17 +2449,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2455,7 +2467,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2463,17 +2475,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2481,7 +2493,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2489,17 +2501,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>69.900000000000006</v>
+        <v>45</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2507,7 +2519,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2515,17 +2527,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2533,7 +2545,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2541,13 +2553,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>35</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
@@ -2559,7 +2571,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2567,17 +2579,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2585,7 +2597,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2593,17 +2605,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2611,7 +2623,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2619,17 +2631,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>12.5</v>
+        <v>41</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2637,7 +2649,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2645,17 +2657,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2663,7 +2675,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2671,17 +2683,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2689,7 +2701,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2697,17 +2709,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>332</v>
+        <v>57</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2715,7 +2727,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2723,17 +2735,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2741,7 +2753,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2755,7 +2767,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>65</v>
+        <v>332</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
@@ -2767,7 +2779,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2775,17 +2787,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2793,7 +2805,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2801,17 +2813,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2819,7 +2831,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2827,17 +2839,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2845,7 +2857,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2853,17 +2865,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2871,7 +2883,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2879,17 +2891,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2897,7 +2909,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2905,17 +2917,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>153.59999999999999</v>
+        <v>17</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2923,7 +2935,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2931,13 +2943,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
@@ -2949,7 +2961,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2963,11 +2975,11 @@
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>180</v>
+        <v>153.59999999999999</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2975,7 +2987,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2983,13 +2995,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
@@ -3001,7 +3013,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3009,17 +3021,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3027,7 +3039,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3041,11 +3053,11 @@
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3053,7 +3065,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3061,17 +3073,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>169.19999999999999</v>
+        <v>20</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>0.29999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3079,7 +3091,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3087,17 +3099,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3105,7 +3117,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3113,17 +3125,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>124</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
-        <v>2</v>
+        <v>0.29999999999999999</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3131,7 +3143,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3139,13 +3151,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>73.319999999999993</v>
+        <v>45</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
@@ -3157,7 +3169,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3165,17 +3177,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>45.5</v>
+        <v>124</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
-        <v>0.33000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3183,7 +3195,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3191,13 +3203,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>116</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
@@ -3209,7 +3221,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3217,17 +3229,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>75</v>
+        <v>45.5</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3235,7 +3247,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3243,17 +3255,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3261,7 +3273,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3269,17 +3281,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3287,7 +3299,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3295,17 +3307,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3313,7 +3325,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3321,7 +3333,7 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
@@ -3331,7 +3343,7 @@
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3339,7 +3351,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3347,17 +3359,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3365,7 +3377,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3373,17 +3385,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3391,7 +3403,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3399,17 +3411,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>0.98999999999999999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3417,7 +3429,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3425,13 +3437,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
@@ -3443,7 +3455,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3451,17 +3463,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
-        <v>1</v>
+        <v>0.98999999999999999</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3469,7 +3481,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3477,17 +3489,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3495,7 +3507,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3503,13 +3515,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
@@ -3521,7 +3533,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3529,17 +3541,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3547,7 +3559,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3555,17 +3567,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3573,7 +3585,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3581,17 +3593,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3599,7 +3611,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3607,7 +3619,7 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
@@ -3617,7 +3629,7 @@
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3639,11 +3651,11 @@
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3665,7 +3677,7 @@
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
@@ -3685,13 +3697,13 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
@@ -3703,7 +3715,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3711,51 +3723,103 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
-      <c r="K108" s="11">
+      <c r="A108" s="6">
+        <v>105</v>
+      </c>
+      <c t="s" r="B108" s="7">
+        <v>144</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c t="s" r="H108" s="8">
+        <v>38</v>
+      </c>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="9">
+        <v>27</v>
+      </c>
+      <c r="M108" s="9"/>
+      <c r="N108" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" ht="24.75" customHeight="1">
+      <c r="A109" s="6">
+        <v>106</v>
+      </c>
+      <c t="s" r="B109" s="7">
+        <v>145</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c t="s" r="H109" s="8">
+        <v>146</v>
+      </c>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="9">
+        <v>8</v>
+      </c>
+      <c r="M109" s="9"/>
+      <c r="N109" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" ht="26.25" customHeight="1">
+      <c r="K110" s="11">
         <v>5767.6000000000004</v>
       </c>
-      <c r="L108" s="11"/>
-      <c r="M108" s="11"/>
-      <c r="N108" s="11"/>
-    </row>
-    <row r="109" ht="17.25" customHeight="1">
-      <c t="s" r="A109" s="12">
-        <v>143</v>
-      </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c t="s" r="F109" s="13">
-        <v>144</v>
-      </c>
-      <c r="G109" s="13"/>
-      <c r="H109" s="14"/>
-      <c t="s" r="I109" s="15">
-        <v>145</v>
-      </c>
-      <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
-      <c r="M109" s="15"/>
-      <c r="N109" s="15"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="12">
+        <v>147</v>
+      </c>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c t="s" r="F111" s="13">
+        <v>148</v>
+      </c>
+      <c r="G111" s="13"/>
+      <c r="H111" s="14"/>
+      <c t="s" r="I111" s="15">
+        <v>149</v>
+      </c>
+      <c r="J111" s="15"/>
+      <c r="K111" s="15"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="323">
+  <mergeCells count="329">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4075,10 +4139,16 @@
     <mergeCell ref="B107:G107"/>
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
-    <mergeCell ref="K108:N108"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="I109:N109"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="K110:N110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="I111:N111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
